--- a/data/trans_camb/IP24_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP24_R-Edad-trans_camb.xlsx
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-4,25</t>
+          <t>-11,01</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,81</t>
+          <t>-6,99</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,41</t>
+          <t>-1,98</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,24</t>
+          <t>-7,35</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,41</t>
+          <t>-3,56</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,1</t>
+          <t>1,83</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-3,27</t>
+          <t>-9,23</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-2,11</t>
+          <t>-5,33</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>4,7</t>
+          <t>-0,1</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,46; -0,85</t>
+          <t>-15,01; -7,1</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,0; 0,63</t>
+          <t>-11,47; -2,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,07; 10,63</t>
+          <t>-7,31; 3,65</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,82; 2,35</t>
+          <t>-12,28; -2,06</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,23; 3,52</t>
+          <t>-8,61; 1,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 11,18</t>
+          <t>-4,43; 8,24</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-6,26; -0,55</t>
+          <t>-12,32; -6,14</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,01; 0,72</t>
+          <t>-8,92; -2,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,17; 8,76</t>
+          <t>-4,44; 3,97</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-52,66%</t>
+          <t>-79,63%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-34,82%</t>
+          <t>-50,61%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>67,03%</t>
+          <t>-14,3%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-16,79%</t>
+          <t>-52,54%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-10,56%</t>
+          <t>-25,42%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>30,7%</t>
+          <t>13,1%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-30,75%</t>
+          <t>-66,38%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-19,84%</t>
+          <t>-38,32%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>44,19%</t>
+          <t>-0,71%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-77,13; -12,64</t>
+          <t>-90,41; -61,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-61,86; 10,53</t>
+          <t>-68,31; -19,13</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,82; 167,64</t>
+          <t>-44,66; 33,16</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-44,26; 20,23</t>
+          <t>-72,98; -17,1</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-40,61; 33,28</t>
+          <t>-51,47; 10,77</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-9,06; 100,59</t>
+          <t>-26,25; 75,81</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-51,6; -5,18</t>
+          <t>-78,8; -49,85</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-41,4; 9,82</t>
+          <t>-56,27; -16,64</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>10,22; 95,37</t>
+          <t>-27,0; 33,14</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-11,01</t>
+          <t>-4,25</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-6,99</t>
+          <t>-2,81</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,98</t>
+          <t>5,41</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-7,35</t>
+          <t>-2,24</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-3,56</t>
+          <t>-1,41</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,83</t>
+          <t>4,1</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-9,23</t>
+          <t>-3,27</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-5,33</t>
+          <t>-2,11</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>4,7</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-15,01; -7,1</t>
+          <t>-7,46; -0,85</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-11,47; -2,4</t>
+          <t>-6,0; 0,63</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,31; 3,65</t>
+          <t>1,07; 10,63</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-12,28; -2,06</t>
+          <t>-6,82; 2,35</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,61; 1,13</t>
+          <t>-6,23; 3,52</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 8,24</t>
+          <t>-1,22; 11,18</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-12,32; -6,14</t>
+          <t>-6,26; -0,55</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-8,92; -2,0</t>
+          <t>-5,01; 0,72</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 3,97</t>
+          <t>1,17; 8,76</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-79,63%</t>
+          <t>-52,66%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-50,61%</t>
+          <t>-34,82%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-14,3%</t>
+          <t>67,03%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-52,54%</t>
+          <t>-16,79%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-25,42%</t>
+          <t>-10,56%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>13,1%</t>
+          <t>30,7%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-66,38%</t>
+          <t>-30,75%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-38,32%</t>
+          <t>-19,84%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-0,71%</t>
+          <t>44,19%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-90,41; -61,13</t>
+          <t>-77,13; -12,64</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-68,31; -19,13</t>
+          <t>-61,86; 10,53</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-44,66; 33,16</t>
+          <t>7,82; 167,64</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-72,98; -17,1</t>
+          <t>-44,26; 20,23</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-51,47; 10,77</t>
+          <t>-40,61; 33,28</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-26,25; 75,81</t>
+          <t>-9,06; 100,59</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-78,8; -49,85</t>
+          <t>-51,6; -5,18</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-56,27; -16,64</t>
+          <t>-41,4; 9,82</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-27,0; 33,14</t>
+          <t>10,22; 95,37</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP24_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP24_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-8,43</t>
+          <t>-5,77</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-8,33</t>
+          <t>-12,24</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-16,9</t>
+          <t>-19,79</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-6,41</t>
+          <t>-14,33</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-2,62</t>
+          <t>-9,79</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-17,53</t>
+          <t>-28,37</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-7,45</t>
+          <t>-10,04</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-5,55</t>
+          <t>-10,87</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-17,18</t>
+          <t>-24,03</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-16,36; -0,78</t>
+          <t>-15,21; 3,07</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-16,59; -0,81</t>
+          <t>-22,57; -3,11</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-24,68; -7,52</t>
+          <t>-31,53; -7,88</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-14,08; 1,22</t>
+          <t>-23,59; -5,26</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-11,24; 5,47</t>
+          <t>-18,85; -0,88</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-26,33; -8,6</t>
+          <t>-39,89; -16,36</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-13,3; -2,39</t>
+          <t>-16,42; -3,21</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-10,89; -0,34</t>
+          <t>-17,49; -3,76</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-23,58; -11,46</t>
+          <t>-32,49; -15,54</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-16,12%</t>
+          <t>-8,14%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-15,93%</t>
+          <t>-17,26%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-32,31%</t>
+          <t>-27,93%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-12,47%</t>
+          <t>-19,68%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-5,1%</t>
+          <t>-13,45%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-34,08%</t>
+          <t>-38,97%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-14,35%</t>
+          <t>-13,99%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-10,7%</t>
+          <t>-15,15%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-33,12%</t>
+          <t>-33,47%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-29,04; -1,67</t>
+          <t>-20,32; 4,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-29,74; -1,68</t>
+          <t>-29,48; -4,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-44,77; -15,64</t>
+          <t>-42,34; -11,83</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-25,78; 2,62</t>
+          <t>-31,01; -7,91</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-20,39; 11,23</t>
+          <t>-24,16; -0,29</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-48,47; -17,63</t>
+          <t>-52,84; -23,71</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-24,47; -4,82</t>
+          <t>-21,93; -4,76</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-20,03; -0,77</t>
+          <t>-23,39; -5,55</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-43,25; -22,95</t>
+          <t>-44,4; -22,51</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-11,01</t>
+          <t>-15,37</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-6,99</t>
+          <t>-8,01</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,98</t>
+          <t>-6,2</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-7,35</t>
+          <t>-8,53</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-3,56</t>
+          <t>-5,16</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,83</t>
+          <t>-1,3</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-9,23</t>
+          <t>-12,15</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-5,33</t>
+          <t>-6,69</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>-3,85</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-15,01; -7,1</t>
+          <t>-19,92; -10,67</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,47; -2,4</t>
+          <t>-12,78; -1,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,31; 3,65</t>
+          <t>-12,3; -0,15</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-12,28; -2,06</t>
+          <t>-13,46; -2,85</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,61; 1,13</t>
+          <t>-10,81; 0,27</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 8,24</t>
+          <t>-7,67; 5,66</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-12,32; -6,14</t>
+          <t>-15,78; -8,34</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-8,92; -2,0</t>
+          <t>-10,51; -3,08</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 3,97</t>
+          <t>-8,04; 0,45</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-79,63%</t>
+          <t>-71,73%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-50,61%</t>
+          <t>-37,41%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-14,3%</t>
+          <t>-28,96%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-52,54%</t>
+          <t>-41,55%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-25,42%</t>
+          <t>-25,11%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>13,1%</t>
+          <t>-6,34%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-66,38%</t>
+          <t>-57,89%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-38,32%</t>
+          <t>-31,87%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-0,71%</t>
+          <t>-18,36%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-90,41; -61,13</t>
+          <t>-82,12; -56,5</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-68,31; -19,13</t>
+          <t>-52,63; -8,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-44,66; 33,16</t>
+          <t>-50,79; -0,44</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-72,98; -17,1</t>
+          <t>-58,04; -15,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-51,47; 10,77</t>
+          <t>-46,72; 2,7</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-26,25; 75,81</t>
+          <t>-34,05; 30,79</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-78,8; -49,85</t>
+          <t>-68,52; -44,5</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-56,27; -16,64</t>
+          <t>-44,59; -16,04</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-27,0; 33,14</t>
+          <t>-35,82; 2,4</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-4,25</t>
+          <t>-8,43</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,81</t>
+          <t>-5,69</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>5,41</t>
+          <t>2,67</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-2,24</t>
+          <t>-8,12</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,41</t>
+          <t>-4,33</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>4,1</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-3,27</t>
+          <t>-8,2</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-2,11</t>
+          <t>-4,93</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>4,7</t>
+          <t>1,15</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,46; -0,85</t>
+          <t>-12,97; -4,57</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,0; 0,63</t>
+          <t>-10,7; -1,35</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,07; 10,63</t>
+          <t>-3,09; 8,26</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,82; 2,35</t>
+          <t>-13,98; -3,28</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,23; 3,52</t>
+          <t>-10,22; 1,8</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 11,18</t>
+          <t>-6,84; 5,46</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-6,26; -0,55</t>
+          <t>-11,81; -5,07</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,01; 0,72</t>
+          <t>-8,55; -1,37</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,17; 8,76</t>
+          <t>-3,16; 5,33</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-52,66%</t>
+          <t>-86,99%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-34,82%</t>
+          <t>-58,72%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>67,03%</t>
+          <t>27,59%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-16,79%</t>
+          <t>-66,07%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-10,56%</t>
+          <t>-35,25%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>30,7%</t>
+          <t>-4,49%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-30,75%</t>
+          <t>-75,15%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-19,84%</t>
+          <t>-45,17%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>44,19%</t>
+          <t>10,55%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-77,13; -12,64</t>
+          <t>-96,87; -61,12</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-61,86; 10,53</t>
+          <t>-81,1; -15,46</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,82; 167,64</t>
+          <t>-23,22; 125,25</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-44,26; 20,23</t>
+          <t>-84,39; -31,62</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-40,61; 33,28</t>
+          <t>-62,79; 25,11</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-9,06; 100,59</t>
+          <t>-44,87; 61,58</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-51,6; -5,18</t>
+          <t>-87,6; -54,13</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-41,4; 9,82</t>
+          <t>-63,15; -11,84</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>10,22; 95,37</t>
+          <t>-23,46; 57,55</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-7,47</t>
+          <t>-2,23</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-6,61</t>
+          <t>-1,3</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-6,9</t>
+          <t>5,89</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-4,97</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-3,34</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-5,75</t>
+          <t>5,69</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-6,25</t>
+          <t>-0,91</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-5,01</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-6,38</t>
+          <t>5,73</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-11,07; -4,36</t>
+          <t>-6,27; 1,87</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-9,96; -3,37</t>
+          <t>-5,6; 3,02</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-10,19; -2,8</t>
+          <t>0,72; 12,85</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-8,28; -1,05</t>
+          <t>-5,63; 6,1</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,23; 0,31</t>
+          <t>-6,32; 5,75</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-9,78; -1,06</t>
+          <t>-0,12; 16,09</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-8,88; -3,79</t>
+          <t>-4,58; 2,61</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-7,45; -2,43</t>
+          <t>-4,56; 3,17</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-8,93; -3,24</t>
+          <t>1,46; 10,78</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-31,9%</t>
+          <t>-29,22%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-28,24%</t>
+          <t>-17,02%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-29,48%</t>
+          <t>77,18%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-19,64%</t>
+          <t>3,15%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-13,19%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-22,74%</t>
+          <t>40,73%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-25,68%</t>
+          <t>-8,5%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-20,61%</t>
+          <t>-4,48%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-26,21%</t>
+          <t>53,46%</t>
         </is>
       </c>
     </row>
@@ -1439,58 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-43,41; -19,22</t>
+          <t>-63,45; 39,4</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-39,55; -15,81</t>
+          <t>-57,33; 54,51</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-40,73; -12,32</t>
+          <t>4,87; 209,36</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-30,25; -4,38</t>
+          <t>-33,82; 53,62</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-26,46; 1,27</t>
+          <t>-35,8; 50,01</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-35,36; -4,17</t>
+          <t>-3,14; 136,26</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-34,85; -16,41</t>
+          <t>-37,47; 28,9</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-29,16; -10,78</t>
+          <t>-37,11; 34,06</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-35,06; -13,84</t>
+          <t>10,88; 114,3</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-7,47</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-6,61</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-6,9</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-4,97</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-3,34</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-5,75</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-6,25</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-5,01</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-6,38</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-10,94; -4,35</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-9,99; -3,4</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-10,14; -3,01</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-8,59; -1,58</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-7,0; 0,42</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-9,31; -1,38</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-8,44; -3,78</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-7,4; -2,57</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-8,99; -3,43</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-31,9%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-28,24%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-29,48%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-19,64%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-13,19%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-22,74%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-25,68%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-20,61%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-26,21%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-43,71; -19,69</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-39,42; -15,76</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-40,78; -12,84</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-31,27; -6,24</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-25,24; 2,06</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-34,95; -4,42</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-33,28; -16,25</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-29,05; -10,87</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-35,92; -14,62</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/IP24_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP24_R-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-15,21; 3,07</t>
+          <t>-15,66; 3,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-22,57; -3,11</t>
+          <t>-21,24; -1,08</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-31,53; -7,88</t>
+          <t>-30,89; -7,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-23,59; -5,26</t>
+          <t>-23,39; -5,12</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-18,85; -0,88</t>
+          <t>-18,48; 0,38</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-39,89; -16,36</t>
+          <t>-39,8; -17,2</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-16,42; -3,21</t>
+          <t>-16,44; -2,82</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-17,49; -3,76</t>
+          <t>-17,67; -4,67</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-32,49; -15,54</t>
+          <t>-32,24; -15,43</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-20,32; 4,63</t>
+          <t>-20,82; 5,6</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-29,48; -4,84</t>
+          <t>-28,84; -1,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-42,34; -11,83</t>
+          <t>-42,34; -10,94</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-31,01; -7,91</t>
+          <t>-30,62; -7,91</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-24,16; -0,29</t>
+          <t>-24,16; 0,47</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-52,84; -23,71</t>
+          <t>-52,0; -24,28</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-21,93; -4,76</t>
+          <t>-21,97; -4,12</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-23,39; -5,55</t>
+          <t>-23,64; -6,7</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-44,4; -22,51</t>
+          <t>-43,18; -22,28</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-19,92; -10,67</t>
+          <t>-19,94; -10,69</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-12,78; -1,82</t>
+          <t>-13,23; -2,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-12,3; -0,15</t>
+          <t>-12,01; -0,35</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-13,46; -2,85</t>
+          <t>-13,67; -2,78</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-10,81; 0,27</t>
+          <t>-10,43; 1,21</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,67; 5,66</t>
+          <t>-7,55; 5,63</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-15,78; -8,34</t>
+          <t>-16,2; -8,95</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-10,51; -3,08</t>
+          <t>-10,46; -3,01</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-8,04; 0,45</t>
+          <t>-8,2; 0,62</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-82,12; -56,5</t>
+          <t>-82,6; -55,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-52,63; -8,91</t>
+          <t>-54,72; -12,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-50,79; -0,44</t>
+          <t>-49,6; -1,56</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-58,04; -15,81</t>
+          <t>-58,75; -16,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-46,72; 2,7</t>
+          <t>-45,93; 6,62</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-34,05; 30,79</t>
+          <t>-32,67; 31,31</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-68,52; -44,5</t>
+          <t>-68,89; -45,51</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-44,59; -16,04</t>
+          <t>-45,2; -14,66</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-35,82; 2,4</t>
+          <t>-35,3; 3,33</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-12,97; -4,57</t>
+          <t>-13,0; -4,05</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-10,7; -1,35</t>
+          <t>-10,9; -1,5</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 8,26</t>
+          <t>-2,86; 9,02</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-13,98; -3,28</t>
+          <t>-13,68; -3,22</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-10,22; 1,8</t>
+          <t>-9,65; 1,47</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,84; 5,46</t>
+          <t>-6,75; 5,76</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-11,81; -5,07</t>
+          <t>-11,49; -5,02</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-8,55; -1,37</t>
+          <t>-8,57; -1,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 5,33</t>
+          <t>-3,1; 5,44</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-96,87; -61,12</t>
+          <t>-96,4; -53,55</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-81,1; -15,46</t>
+          <t>-81,95; -17,74</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-23,22; 125,25</t>
+          <t>-22,36; 143,72</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-84,39; -31,62</t>
+          <t>-84,84; -30,7</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-62,79; 25,11</t>
+          <t>-62,7; 20,69</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-44,87; 61,58</t>
+          <t>-44,92; 64,67</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-87,6; -54,13</t>
+          <t>-87,07; -53,94</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-63,15; -11,84</t>
+          <t>-65,13; -11,54</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-23,46; 57,55</t>
+          <t>-23,45; 64,14</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,27; 1,87</t>
+          <t>-6,41; 1,61</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,6; 3,02</t>
+          <t>-5,47; 3,47</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,72; 12,85</t>
+          <t>0,91; 12,7</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,63; 6,1</t>
+          <t>-5,4; 6,71</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-6,32; 5,75</t>
+          <t>-5,87; 6,04</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 16,09</t>
+          <t>-0,48; 16,57</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,58; 2,61</t>
+          <t>-4,83; 2,84</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 3,17</t>
+          <t>-4,17; 3,52</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,46; 10,78</t>
+          <t>1,39; 12,13</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-63,45; 39,4</t>
+          <t>-63,2; 35,42</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-57,33; 54,51</t>
+          <t>-56,19; 59,15</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>4,87; 209,36</t>
+          <t>4,91; 221,22</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-33,82; 53,62</t>
+          <t>-32,92; 62,11</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-35,8; 50,01</t>
+          <t>-34,84; 52,0</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 136,26</t>
+          <t>-4,99; 145,3</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-37,47; 28,9</t>
+          <t>-40,15; 32,83</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-37,11; 34,06</t>
+          <t>-34,26; 40,25</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>10,88; 114,3</t>
+          <t>11,15; 128,22</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-10,94; -4,35</t>
+          <t>-10,8; -4,24</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-9,99; -3,4</t>
+          <t>-9,8; -3,21</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-10,14; -3,01</t>
+          <t>-10,63; -3,11</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-8,59; -1,58</t>
+          <t>-8,27; -1,5</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-7,0; 0,42</t>
+          <t>-6,99; 0,59</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-9,31; -1,38</t>
+          <t>-9,33; -0,49</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-8,44; -3,78</t>
+          <t>-8,98; -3,75</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-7,4; -2,57</t>
+          <t>-7,56; -2,45</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-8,99; -3,43</t>
+          <t>-9,24; -3,28</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-43,71; -19,69</t>
+          <t>-43,15; -19,0</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-39,42; -15,76</t>
+          <t>-38,53; -14,98</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-40,78; -12,84</t>
+          <t>-42,43; -14,01</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-31,27; -6,24</t>
+          <t>-30,63; -5,89</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-25,24; 2,06</t>
+          <t>-25,37; 2,59</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-34,95; -4,42</t>
+          <t>-34,87; -2,23</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-33,28; -16,25</t>
+          <t>-35,05; -16,22</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-29,05; -10,87</t>
+          <t>-29,09; -10,77</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-35,92; -14,62</t>
+          <t>-35,59; -13,96</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP24_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP24_R-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -632,32 +632,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>-14,33</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>-9,79</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>-27,54</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>-5,77</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>-12,24</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-19,79</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-14,33</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-9,79</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-28,37</t>
+          <t>-18,5</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-24,03</t>
+          <t>-22,88</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-15,66; 3,62</t>
+          <t>-23,61; -4,63</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-21,24; -1,08</t>
+          <t>-19,15; -0,31</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-30,89; -7,0</t>
+          <t>-39,26; -16,62</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-23,39; -5,12</t>
+          <t>-15,34; 3,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-18,48; 0,38</t>
+          <t>-21,59; -2,65</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-39,8; -17,2</t>
+          <t>-29,94; -6,95</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-16,44; -2,82</t>
+          <t>-16,36; -3,66</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-17,67; -4,67</t>
+          <t>-17,59; -3,57</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-32,24; -15,43</t>
+          <t>-31,27; -13,85</t>
         </is>
       </c>
     </row>
@@ -738,32 +738,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>-19,68%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>-13,45%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>-37,82%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>-8,14%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>-17,26%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-27,93%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-19,68%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-13,45%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-38,97%</t>
+          <t>-26,1%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-33,47%</t>
+          <t>-31,87%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-20,82; 5,6</t>
+          <t>-30,94; -6,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-28,84; -1,68</t>
+          <t>-24,37; -0,44</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-42,34; -10,94</t>
+          <t>-51,74; -23,61</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-30,62; -7,91</t>
+          <t>-20,16; 4,96</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-24,16; 0,47</t>
+          <t>-29,1; -3,83</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-52,0; -24,28</t>
+          <t>-41,14; -10,7</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-21,97; -4,12</t>
+          <t>-22,33; -5,53</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-23,64; -6,7</t>
+          <t>-23,34; -5,21</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-43,18; -22,28</t>
+          <t>-41,88; -20,14</t>
         </is>
       </c>
     </row>
@@ -848,32 +848,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>-8,53</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>-5,16</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0,59</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>-15,37</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>-8,01</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-6,2</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-8,53</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-5,16</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,3</t>
+          <t>-5,55</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-3,85</t>
+          <t>-2,66</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-19,94; -10,69</t>
+          <t>-13,88; -3,49</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-13,23; -2,68</t>
+          <t>-10,72; 0,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-12,01; -0,35</t>
+          <t>-6,38; 7,69</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-13,67; -2,78</t>
+          <t>-20,04; -10,84</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-10,43; 1,21</t>
+          <t>-13,71; -2,95</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,55; 5,63</t>
+          <t>-11,79; 0,9</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-16,2; -8,95</t>
+          <t>-15,71; -8,57</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-10,46; -3,01</t>
+          <t>-10,6; -2,74</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-8,2; 0,62</t>
+          <t>-7,51; 2,33</t>
         </is>
       </c>
     </row>
@@ -954,32 +954,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>-41,55%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>-25,11%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2,86%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>-71,73%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>-37,41%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-28,96%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-41,55%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-25,11%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-6,34%</t>
+          <t>-25,9%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-18,36%</t>
+          <t>-12,67%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-82,6; -55,23</t>
+          <t>-59,61; -17,5</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-54,72; -12,7</t>
+          <t>-46,66; 2,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-49,6; -1,56</t>
+          <t>-27,79; 44,14</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-58,75; -16,0</t>
+          <t>-82,61; -57,02</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-45,93; 6,62</t>
+          <t>-55,94; -16,24</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-32,67; 31,31</t>
+          <t>-48,25; 5,52</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-68,89; -45,51</t>
+          <t>-68,27; -44,98</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-45,2; -14,66</t>
+          <t>-46,52; -14,53</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-35,3; 3,33</t>
+          <t>-33,09; 12,48</t>
         </is>
       </c>
     </row>
@@ -1064,32 +1064,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>-8,12</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-4,33</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-0,22</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>-8,43</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>-5,69</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>2,67</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-8,12</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-4,33</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,55</t>
+          <t>3,76</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>1,15</t>
+          <t>1,91</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-13,0; -4,05</t>
+          <t>-13,6; -3,13</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-10,9; -1,5</t>
+          <t>-10,78; 0,72</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 9,02</t>
+          <t>-6,44; 6,54</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-13,68; -3,22</t>
+          <t>-13,06; -4,42</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-9,65; 1,47</t>
+          <t>-10,56; -1,47</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,75; 5,76</t>
+          <t>-2,31; 10,03</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-11,49; -5,02</t>
+          <t>-11,56; -5,08</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-8,57; -1,0</t>
+          <t>-8,62; -1,28</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 5,44</t>
+          <t>-2,08; 6,4</t>
         </is>
       </c>
     </row>
@@ -1170,32 +1170,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>-66,07%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>-35,25%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>-1,83%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>-86,99%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>-58,72%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>27,59%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-66,07%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-35,25%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-4,49%</t>
+          <t>38,85%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>10,55%</t>
+          <t>17,49%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-96,4; -53,55</t>
+          <t>-84,37; -28,07</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-81,95; -17,74</t>
+          <t>-66,31; 11,88</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-22,36; 143,72</t>
+          <t>-41,23; 69,26</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-84,84; -30,7</t>
+          <t>-96,49; -58,38</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-62,7; 20,69</t>
+          <t>-81,04; -14,46</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-44,92; 64,67</t>
+          <t>-22,09; 140,73</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-87,07; -53,94</t>
+          <t>-87,51; -57,34</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-65,13; -11,54</t>
+          <t>-65,51; -14,28</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-23,45; 64,14</t>
+          <t>-17,35; 71,96</t>
         </is>
       </c>
     </row>
@@ -1280,32 +1280,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>0,44</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0,17</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>13,44</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>-2,23</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>-1,3</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>5,89</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>0,44</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>0,17</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>5,69</t>
+          <t>7,91</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>5,73</t>
+          <t>10,46</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,41; 1,61</t>
+          <t>-5,8; 5,74</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,47; 3,47</t>
+          <t>-5,97; 6,21</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,91; 12,7</t>
+          <t>3,09; 39,21</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,4; 6,71</t>
+          <t>-6,24; 1,71</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,87; 6,04</t>
+          <t>-5,13; 3,13</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 16,57</t>
+          <t>2,12; 18,1</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 2,84</t>
+          <t>-4,6; 2,78</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 3,52</t>
+          <t>-4,3; 3,09</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,39; 12,13</t>
+          <t>4,33; 24,53</t>
         </is>
       </c>
     </row>
@@ -1386,32 +1386,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>3,15%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1,19%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>96,12%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>-29,22%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="G18" s="2" t="inlineStr">
         <is>
           <t>-17,02%</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>77,18%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>3,15%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>1,19%</t>
-        </is>
-      </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>40,73%</t>
+          <t>103,61%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>53,46%</t>
+          <t>97,66%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-63,2; 35,42</t>
+          <t>-34,23; 51,84</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-56,19; 59,15</t>
+          <t>-36,42; 55,5</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>4,91; 221,22</t>
+          <t>17,3; 368,05</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-32,92; 62,11</t>
+          <t>-64,31; 31,68</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-34,84; 52,0</t>
+          <t>-54,45; 59,24</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-4,99; 145,3</t>
+          <t>19,0; 321,44</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-40,15; 32,83</t>
+          <t>-36,92; 30,72</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-34,26; 40,25</t>
+          <t>-34,37; 33,58</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>11,15; 128,22</t>
+          <t>33,26; 241,47</t>
         </is>
       </c>
     </row>
@@ -1496,32 +1496,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>-4,97</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-3,34</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-1,89</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
           <t>-7,47</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="G20" s="2" t="inlineStr">
         <is>
           <t>-6,61</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-6,9</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>-4,97</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>-3,34</t>
-        </is>
-      </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-5,75</t>
+          <t>-5,53</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-6,38</t>
+          <t>-3,86</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-10,8; -4,24</t>
+          <t>-8,28; -1,05</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-9,8; -3,21</t>
+          <t>-7,23; 0,31</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-10,63; -3,11</t>
+          <t>-6,82; 9,66</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-8,27; -1,5</t>
+          <t>-11,07; -4,36</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-6,99; 0,59</t>
+          <t>-9,96; -3,37</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-9,33; -0,49</t>
+          <t>-9,11; -0,8</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-8,98; -3,75</t>
+          <t>-8,88; -3,79</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-7,56; -2,45</t>
+          <t>-7,45; -2,43</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-9,24; -3,28</t>
+          <t>-6,89; 1,32</t>
         </is>
       </c>
     </row>
@@ -1602,32 +1602,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>-19,64%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-13,19%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-7,45%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
           <t>-31,9%</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
+      <c r="G22" s="2" t="inlineStr">
         <is>
           <t>-28,24%</t>
         </is>
       </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-29,48%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>-19,64%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>-13,19%</t>
-        </is>
-      </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-22,74%</t>
+          <t>-23,61%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-26,21%</t>
+          <t>-15,87%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-43,15; -19,0</t>
+          <t>-30,25; -4,38</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-38,53; -14,98</t>
+          <t>-26,46; 1,27</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-42,43; -14,01</t>
+          <t>-25,93; 38,39</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-30,63; -5,89</t>
+          <t>-43,41; -19,22</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-25,37; 2,59</t>
+          <t>-39,55; -15,81</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-34,87; -2,23</t>
+          <t>-36,35; -2,86</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-35,05; -16,22</t>
+          <t>-34,85; -16,41</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-29,09; -10,77</t>
+          <t>-29,16; -10,78</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-35,59; -13,96</t>
+          <t>-27,43; 5,63</t>
         </is>
       </c>
     </row>
